--- a/Documents/SCRUM/Scrum_08_05.xlsx
+++ b/Documents/SCRUM/Scrum_08_05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bram Decuypere\Desktop\Project - basket\trunk\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Project C# en Java 2013-2014\C#\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Wat heb ik gedaan?</t>
   </si>
@@ -47,37 +47,25 @@
     <t>Jens Goven</t>
   </si>
   <si>
-    <t>Bram Decuypere</t>
-  </si>
-  <si>
-    <t>Kennith Metten</t>
-  </si>
-  <si>
-    <t>Alle raw html afmaken, java templating, SpringMVC</t>
-  </si>
-  <si>
-    <t>SQL Trigger en procedure en java JSP standaard project opstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL Triggers maken, JSP debuggen, Procedures </t>
-  </si>
-  <si>
-    <t>Spring MVC uitzoeken, logo afmaken</t>
-  </si>
-  <si>
-    <t>Procedures en Triggers maken</t>
-  </si>
-  <si>
-    <t>Beginnen aan springMVC</t>
-  </si>
-  <si>
-    <t>Syntax van oracle naar MySQL</t>
-  </si>
-  <si>
-    <t>Proberen code te krijgen</t>
-  </si>
-  <si>
-    <t>Spring MVC opstellen en basis leggen</t>
+    <t>Arno van Waeyenberg</t>
+  </si>
+  <si>
+    <t>Beginnen met login</t>
+  </si>
+  <si>
+    <t>Databank opgesteld</t>
+  </si>
+  <si>
+    <t>syntaxfouten</t>
+  </si>
+  <si>
+    <t>GIT Gefixed</t>
+  </si>
+  <si>
+    <t>Basis WPF Forms</t>
+  </si>
+  <si>
+    <t>Entity Framework opzetten</t>
   </si>
 </sst>
 </file>
@@ -148,7 +136,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -485,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
     <col min="3" max="3" width="37.375" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
@@ -516,13 +504,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -530,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -544,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,27 +546,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
